--- a/dokumentasi/Analisa New Webtool.xlsx
+++ b/dokumentasi/Analisa New Webtool.xlsx
@@ -4,23 +4,31 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9204"/>
+    <workbookView windowWidth="22488" windowHeight="9204" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Tabel" sheetId="1" r:id="rId1"/>
     <sheet name="menu_akses" sheetId="2" r:id="rId2"/>
     <sheet name="menu_master" sheetId="3" r:id="rId3"/>
     <sheet name="menu_sub" sheetId="4" r:id="rId4"/>
-    <sheet name="master_dataso" sheetId="5" r:id="rId5"/>
-    <sheet name="dataso" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="kre_kode_so" sheetId="5" r:id="rId5"/>
+    <sheet name="master_provinsi" sheetId="6" r:id="rId6"/>
+    <sheet name="master_kabupaten" sheetId="8" r:id="rId7"/>
+    <sheet name="master_kecamatan" sheetId="9" r:id="rId8"/>
+    <sheet name="master_kelurahan" sheetId="10" r:id="rId9"/>
+    <sheet name="master_area_so" sheetId="14" r:id="rId10"/>
+    <sheet name="master_area_ao" sheetId="15" r:id="rId11"/>
+    <sheet name="master_asal_data" sheetId="12" r:id="rId12"/>
+    <sheet name="Tso" sheetId="11" r:id="rId13"/>
+    <sheet name="Tfasilitas_pinjaman" sheetId="7" r:id="rId14"/>
+    <sheet name="Tcadeb" sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="97">
   <si>
     <t>No</t>
   </si>
@@ -46,7 +54,7 @@
     <t>Mengikuti dpm_online</t>
   </si>
   <si>
-    <t>master_dataso</t>
+    <t>kre_kode_so</t>
   </si>
   <si>
     <t>master_provinsi</t>
@@ -61,7 +69,10 @@
     <t>master_kelurahan</t>
   </si>
   <si>
-    <t>master_kode_pos</t>
+    <t>master_area_so</t>
+  </si>
+  <si>
+    <t>master_area_ao</t>
   </si>
   <si>
     <t>tso</t>
@@ -128,6 +139,186 @@
   </si>
   <si>
     <t>Keterangan</t>
+  </si>
+  <si>
+    <t>ma_id</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>ma_user_id</t>
+  </si>
+  <si>
+    <t>mm_id</t>
+  </si>
+  <si>
+    <t>ms_id</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>ma_print</t>
+  </si>
+  <si>
+    <t>smalint</t>
+  </si>
+  <si>
+    <t>ma_add</t>
+  </si>
+  <si>
+    <t>ma_edit</t>
+  </si>
+  <si>
+    <t>ma_delete</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>mm_nama</t>
+  </si>
+  <si>
+    <t>Varchar</t>
+  </si>
+  <si>
+    <t>mm_url</t>
+  </si>
+  <si>
+    <t>mm_icon</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>ms_mm_id</t>
+  </si>
+  <si>
+    <t>ms_nama</t>
+  </si>
+  <si>
+    <t>ms_url</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>Autoincrement</t>
+  </si>
+  <si>
+    <t>nik</t>
+  </si>
+  <si>
+    <t>nama_so</t>
+  </si>
+  <si>
+    <t>kode_kantor</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>flg_aktif</t>
+  </si>
+  <si>
+    <t>id_provinsi</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>nama_provinsi</t>
+  </si>
+  <si>
+    <t>id_kabupaten</t>
+  </si>
+  <si>
+    <t>nama_kabupaten</t>
+  </si>
+  <si>
+    <t>id_kecamatan</t>
+  </si>
+  <si>
+    <t>nama_kecamatan</t>
+  </si>
+  <si>
+    <t>id_kelurahan</t>
+  </si>
+  <si>
+    <t>nama_kelurahan</t>
+  </si>
+  <si>
+    <t>kode_pos</t>
+  </si>
+  <si>
+    <t>kode_group2</t>
+  </si>
+  <si>
+    <t>kre_kode_group2</t>
+  </si>
+  <si>
+    <t>nama_data</t>
+  </si>
+  <si>
+    <t>nomor_so</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>asal_data</t>
+  </si>
+  <si>
+    <t>nama_marketing</t>
+  </si>
+  <si>
+    <t>plafon</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>tenor</t>
+  </si>
+  <si>
+    <t>jenis_pinjaman</t>
+  </si>
+  <si>
+    <t>tujuan_pinjaman</t>
+  </si>
+  <si>
+    <t>nama_cadeb</t>
+  </si>
+  <si>
+    <t>gelar_agama</t>
+  </si>
+  <si>
+    <t>gelar_pendidikan</t>
+  </si>
+  <si>
+    <t>JENIS_KELAMIN</t>
+  </si>
+  <si>
+    <t>STATUS_MARITAL</t>
+  </si>
+  <si>
+    <t>NAMA_IBU_KANDUNG</t>
+  </si>
+  <si>
+    <t>NO_ID</t>
   </si>
 </sst>
 </file>
@@ -136,8 +327,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -157,8 +348,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,14 +372,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -195,23 +394,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -234,9 +433,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,15 +450,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,14 +472,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,13 +486,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,175 +507,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,8 +529,176 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -596,6 +793,65 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -606,15 +862,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,24 +883,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,17 +909,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -697,7 +920,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,143 +929,143 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -872,6 +1095,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1192,10 +1436,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C40"/>
+  <dimension ref="A2:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="$A27:$XFD27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1215,95 +1459,86 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="2:2">
+      <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="2:2">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="2:2">
+      <c r="B5" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="2:3">
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="2:3">
+      <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="15" t="s">
         <v>12</v>
       </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" t="s">
+      <c r="B12" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="13" spans="2:2">
+      <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="14" spans="2:2">
+      <c r="B14" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="15" spans="2:2">
+      <c r="B15" s="15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1357,13 +1592,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40">
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
         <v>26</v>
       </c>
     </row>
@@ -1373,20 +1613,366 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:J3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J3"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
-    <col min="4" max="4" width="3" customWidth="1"/>
-    <col min="7" max="7" width="7.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="11.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
+    <col min="8" max="8" width="17.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="14.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="10">
+        <v>11</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="10">
+        <v>11</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="10">
+        <v>10</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="B1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <cols>
+    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
+    <col min="8" max="8" width="17.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="14.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="10">
+        <v>11</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="10">
+        <v>11</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="10">
+        <v>10</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="B1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <cols>
+    <col min="10" max="10" width="14.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
@@ -1394,29 +1980,29 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1431,8 +2017,993 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="10">
+        <v>11</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="10">
+        <v>30</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B2:C3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="10" max="10" width="14.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="10">
+        <v>11</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="10">
+        <v>10</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="10">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="10">
+        <v>11</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="10">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="10">
+        <v>4</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="10">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="10">
+        <v>30</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="10">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="10">
+        <v>50</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="10">
+        <v>18.2</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="10">
+        <v>8</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="10">
+        <v>18.2</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B2:C3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="10" max="10" width="14.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="10">
+        <v>11</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="10">
+        <v>10</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="10">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="10">
+        <v>20</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="10">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="10">
+        <v>255</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="10">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="10">
+        <v>18.2</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="10">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="10">
+        <v>18.2</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B2:C3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="10" max="10" width="14.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="10">
+        <v>11</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="10">
+        <v>10</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="10">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="10">
+        <v>20</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="10">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="10">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="10">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B2:C3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="3" customWidth="1"/>
+    <col min="7" max="7" width="7.66666666666667" customWidth="1"/>
+    <col min="10" max="10" width="11.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="14">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="14">
+        <v>11</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="14">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="14">
+        <v>11</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="14">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="14">
+        <v>11</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="14">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="14">
+        <v>100</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="14">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="14">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="14">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="14">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
@@ -1451,42 +3022,42 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:J3"/>
+  <dimension ref="A2:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <sheetData>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1501,8 +3072,102 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="14">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="14">
+        <v>11</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="14">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="14">
+        <v>100</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="14">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="14">
+        <v>255</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="14">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="14">
+        <v>255</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
@@ -1521,42 +3186,42 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:J3"/>
+  <dimension ref="A2:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J3"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <sheetData>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1571,8 +3236,101 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="14">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="14">
+        <v>11</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="14">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="14">
+        <v>11</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="14">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="14">
+        <v>255</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="14">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="14">
+        <v>255</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
@@ -1591,15 +3349,22 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:J3"/>
+  <dimension ref="A2:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
-    <col min="10" max="10" width="11.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="3.22222222222222" customWidth="1"/>
+    <col min="4" max="4" width="3" customWidth="1"/>
+    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
+    <col min="6" max="6" width="8.55555555555556" customWidth="1"/>
+    <col min="7" max="7" width="7.66666666666667" customWidth="1"/>
+    <col min="8" max="8" width="9.44444444444444" customWidth="1"/>
+    <col min="9" max="9" width="8.77777777777778" customWidth="1"/>
+    <col min="10" max="10" width="14.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
@@ -1607,29 +3372,29 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1644,8 +3409,127 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="10">
+        <v>11</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="10">
+        <v>10</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="10">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="10">
+        <v>100</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="10">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="10">
+        <v>4</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="10">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="14">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
@@ -1664,14 +3548,169 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <cols>
+    <col min="10" max="10" width="14.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="10">
+        <v>11</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="10">
+        <v>11</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="10">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="10">
+        <v>100</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="10">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B2:C3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1680,14 +3719,672 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <cols>
+    <col min="10" max="10" width="14.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="10">
+        <v>11</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="10">
+        <v>11</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="10">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="10">
+        <v>11</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="10">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="10">
+        <v>100</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="10">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B2:C3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="10" max="10" width="14.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="10">
+        <v>11</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="10">
+        <v>11</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="10">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="10">
+        <v>11</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="10">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="10">
+        <v>11</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="10">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="10">
+        <v>100</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="10">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B2:C3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="10" max="10" width="14.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="10">
+        <v>11</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="10">
+        <v>11</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="10">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="10">
+        <v>11</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="10">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="10">
+        <v>11</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="10">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="10">
+        <v>11</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="10">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="10">
+        <v>100</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="10">
+        <v>10</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="10">
+        <v>8</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B2:C3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/dokumentasi/Analisa New Webtool.xlsx
+++ b/dokumentasi/Analisa New Webtool.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Tabel" sheetId="1" state="visible" r:id="rId2"/>
@@ -558,7 +558,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.89"/>
@@ -733,7 +733,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.11"/>
@@ -910,11 +910,11 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.11"/>
@@ -1095,7 +1095,7 @@
       <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.23"/>
   </cols>
@@ -1222,10 +1222,10 @@
   <dimension ref="A2:J11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J20" activeCellId="0" sqref="J20"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.23"/>
   </cols>
@@ -1483,7 +1483,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.23"/>
   </cols>
@@ -1699,7 +1699,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.23"/>
   </cols>
@@ -1917,14 +1917,14 @@
   <dimension ref="A2:J11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="2.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2185,10 +2185,10 @@
   <dimension ref="A2:J7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -2356,10 +2356,10 @@
   <dimension ref="A2:J7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -2525,11 +2525,11 @@
   </sheetPr>
   <dimension ref="A2:J8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N13" activeCellId="0" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="2.99"/>
@@ -2537,7 +2537,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.23"/>
   </cols>
   <sheetData>
@@ -2735,7 +2735,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.23"/>
   </cols>
@@ -2913,7 +2913,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.23"/>
   </cols>
@@ -3114,7 +3114,7 @@
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.23"/>
   </cols>
@@ -3338,7 +3338,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.23"/>
   </cols>

--- a/dokumentasi/Analisa New Webtool.xlsx
+++ b/dokumentasi/Analisa New Webtool.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Tabel" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,12 +17,12 @@
     <sheet name="master_kabupaten" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="master_kecamatan" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="master_kelurahan" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="master_area_so" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="master_area_ao" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="master_asal_data" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Tso" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Tfasilitas_pinjaman" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Tcadeb" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="master_asal_data" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="master_area" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Tso" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Tfasilitas_pinjaman" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Tcadeb" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Sheet16" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="101">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -270,19 +270,31 @@
     <t xml:space="preserve">kode_pos</t>
   </si>
   <si>
-    <t xml:space="preserve">kode_group2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kre_kode_group2</t>
-  </si>
-  <si>
     <t xml:space="preserve">nama_data</t>
   </si>
   <si>
+    <t xml:space="preserve">kode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jenis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enum(‘AO’, ‘SO’, ‘COL’, ‘MB’, ‘CA’)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TINYINT</t>
+  </si>
+  <si>
     <t xml:space="preserve">nomor_so</t>
   </si>
   <si>
     <t xml:space="preserve">user_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kode_cabang→dpm_online</t>
   </si>
   <si>
     <t xml:space="preserve">asal_data</t>
@@ -393,7 +405,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -406,6 +418,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -434,7 +453,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -469,6 +488,18 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -558,7 +589,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.89"/>
@@ -727,375 +758,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A2:J5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.23"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.23"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A2:J5"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.23"/>
   </cols>
@@ -1173,7 +842,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1214,18 +883,220 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:J11"/>
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.23"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:L11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.23"/>
   </cols>
@@ -1303,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
@@ -1327,7 +1198,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1342,7 +1213,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>4</v>
       </c>
@@ -1361,13 +1232,16 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K7" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1382,12 +1256,12 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1401,18 +1275,20 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>18.2</v>
@@ -1427,12 +1303,12 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F11" s="6" t="n">
         <v>18.2</v>
@@ -1443,7 +1319,7 @@
       <c r="J11" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D2:D3"/>
@@ -1459,6 +1335,7 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
   </mergeCells>
@@ -1472,7 +1349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1480,10 +1357,10 @@
   <dimension ref="A2:J9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.23"/>
   </cols>
@@ -1561,7 +1438,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
@@ -1585,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1605,7 +1482,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1625,12 +1502,12 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F8" s="6" t="n">
         <v>18.2</v>
@@ -1645,12 +1522,12 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F9" s="6" t="n">
         <v>18.2</v>
@@ -1688,7 +1565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1699,7 +1576,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.23"/>
   </cols>
@@ -1777,7 +1654,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
@@ -1801,7 +1678,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1821,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1837,7 +1714,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1853,7 +1730,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1865,19 +1742,19 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="9"/>
+      <c r="B10" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1909,6 +1786,29 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1920,7 +1820,7 @@
       <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="2.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.67"/>
@@ -2188,7 +2088,7 @@
       <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -2359,7 +2259,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -2525,11 +2425,11 @@
   </sheetPr>
   <dimension ref="A2:J8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N13" activeCellId="0" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="2.99"/>
@@ -2735,7 +2635,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.23"/>
   </cols>
@@ -2913,7 +2813,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.23"/>
   </cols>
@@ -3114,7 +3014,7 @@
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.23"/>
   </cols>
@@ -3338,7 +3238,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.23"/>
   </cols>
